--- a/goal_profit/gamedb.xlsx
+++ b/goal_profit/gamedb.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,140 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/06/23</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Al Mokawloon v Ismaily</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01/06/23</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Atletico Palmaflor v Always Ready</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/goal_profit/gamedb.xlsx
+++ b/goal_profit/gamedb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,13 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -417,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,63 +503,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/06/23</t>
+          <t>03/06/23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Al Mokawloon v Ismaily</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+          <t>Shonan Bellmare v Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>37</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>18</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -562,67 +550,819 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/06/23</t>
+          <t>03/06/23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Atletico Palmaflor v Always Ready</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+          <t>Suwon Bluewings v Suwon</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>39</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>24</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>03/06/23</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>JEF United v Machida Zelvia</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>27</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>03/06/23</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG v Chengdu Qianbao</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>22</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>18</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>03/06/23</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yokohama v Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>35</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>03/06/23</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jeju United v Gangwon</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>12</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>03/06/23</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fagiano Okayama v Tokushima</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>26</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>12</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>03/06/23</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gwangju v Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>30</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>19</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>03/06/23</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Henan Jianye v Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>22</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>03/06/23</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dainava v Sūduva</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>22</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>03/06/23</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Inter Turku v Honka</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>26</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>37</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>03/06/23</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AaB v Silkeborg</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>40</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>27</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>03/06/23</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Horsens v Lyngby</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>24</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>34</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>03/06/23</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>IFK Göteborg v Mjällby</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>18</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>23</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>03/06/23</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Konyaspor v Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>52</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>30</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>03/06/23</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HJK v SJK</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>24</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>03/06/23</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>KTP v VPS</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>43</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>34</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>03/06/23</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Banga v Riteriai</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0-1</t>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0-0</t>
         </is>
       </c>
     </row>

--- a/goal_profit/gamedb.xlsx
+++ b/goal_profit/gamedb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,59 +511,106 @@
           <t>Suwon v Ulsan</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>114</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pohang Steelers v Jeju United</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1-1</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1-0</t>
         </is>
       </c>
     </row>

--- a/goal_profit/gamedb.xlsx
+++ b/goal_profit/gamedb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,59 +558,106 @@
           <t>Pohang Steelers v Jeju United</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>30</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>35</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sanna Khanh Hoa v Viettel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>1-0</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0-0</t>
         </is>
       </c>
     </row>

--- a/goal_profit/gamedb.xlsx
+++ b/goal_profit/gamedb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,59 +605,1537 @@
           <t>Sanna Khanh Hoa v Viettel</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>25</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Albirex Niigata S v Geylang International</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>34</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>39</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>20</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GIF Sundsvall v GAIS</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>34</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>38</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Örgryte v Landskrona</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>63</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>29</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Helsingborg
+S. Baxter has been in charge for 7 games v Jönköpings Södra</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>44</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Helsingborg v Jönköpings Södra</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>24</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>44</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fatih Karagümrük v Kasımpaşa</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>28</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>67</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sivasspor v Kayserispor</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>33</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>14</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fatih Karagümrük
+A. Erdem has been in charge for 1 game v Kasımpaşa
+K. Özdeş has been in charge for 10 games</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>28</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>67</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kuressaare v Levadia</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>30</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7</v>
+      </c>
+      <c r="L13" t="n">
+        <v>37</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Banga v Sūduva</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>43</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pharco v Pyramids FC</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>19</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>29</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>El Daklyeh v Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>57</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>42</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>El Daklyeh v Haras El Hodood
+M. Mekki has been in charge for 2 games</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>57</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>42</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Slavia Sofia v Lokomotiv Sofia 1929</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>37</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>18</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Botev Plovdiv v Arda</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>80</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Riteriai v Kauno Žalgiris</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>14</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>17</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju v Vaprus</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>33</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>33</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>İstanbul Başakşehir v Trabzonspor</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>29</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>24</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06/06/23</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju
+N. Andreev has been in charge for 7 games v Vaprus</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>33</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>33</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>07/06/23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju v Vaprus</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>33</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>33</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>07/06/23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>İstanbul Başakşehir v Trabzonspor</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>29</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>24</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>07/06/23</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Future FC v ENPPI</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>43</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>21</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>07/06/23</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nieciecza v Stal Rzeszów</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.46X:</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>17</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>47</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>07/06/23</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Chapecoense v Vila Nova</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>4.00</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="E28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>19</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>28</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>07/06/23</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ponte Preta v ABC</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>33</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>9</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>07/06/23</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ponte Preta v ABC
+A. Aal has been in charge for 4 games</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>33</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>9</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>07/06/23</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Tombense v Vitória</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>11</v>
+      </c>
+      <c r="I31" t="n">
+        <v>29</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>9</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>07/06/23</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Botafogo SP v Ituano</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+      <c r="I32" t="n">
+        <v>21</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>20</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>07/06/23</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Botafogo SP v Ituano
+M. Freitas Rocha da Silva has been in charge for 2 games</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>21</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>20</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>07/06/23</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Atlético GO v Ceará</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0-0</t>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>07/06/23</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Atlético GO
+A. Valentim do Carmo Neto has been in charge for 6 games v Ceará
+E. de Souza Barroca has been in charge for 9 games</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+      <c r="I35" t="n">
+        <v>42</v>
+      </c>
+      <c r="J35" t="n">
+        <v>6</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>18</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0-1</t>
         </is>
       </c>
     </row>

--- a/goal_profit/gamedb.xlsx
+++ b/goal_profit/gamedb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2032,55 +2032,37 @@
           <t>Atlético GO v Ceará</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
+      <c r="C34" t="n">
+        <v>1.91</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>6.80</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="E34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+      <c r="I34" t="n">
+        <v>42</v>
+      </c>
+      <c r="J34" t="n">
+        <v>6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>18</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2136,6 +2118,73 @@
       <c r="M35" t="inlineStr">
         <is>
           <t>0-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>08/06/23</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Los Angeles FC v Atlanta United</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0-0</t>
         </is>
       </c>
     </row>

--- a/goal_profit/gamedb.xlsx
+++ b/goal_profit/gamedb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2132,57 +2132,106 @@
           <t>Los Angeles FC v Atlanta United</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
+      <c r="C36" t="n">
+        <v>1.7</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>1.99</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
+      <c r="E36" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+      <c r="I36" t="n">
+        <v>53</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>23</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>16/07/23</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>PSIS Semarang v Persebaya Surabaya</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>0-0</t>
         </is>
